--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/K1714N1/work/doc/edison_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA92A8F-9E91-A043-AA89-4E8A40A98527}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E733B-1E15-DB41-A963-988C04BDD102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1684">
   <si>
     <t>전자들이 전자총내의 포텐셜에 의해 가속되어, 전자빔내의 전자들의 속도가 결정된다. 헬름홀츠 코일은 전자빔에 수직하게 균일하고 측정가능한 자기장을 생성한다. 이 자기장은 전자빔의 경로를 원형으로 휘게 만든다. 가속 포텐셜(V), 헬름홀츠 코일에 흐르는 전류(I), 그리고 전자빔의 반경을 측정함으로써 e/m이 쉽게 계산된다. &amp;#xd;</t>
   </si>
@@ -5079,6 +5079,14 @@
   </si>
   <si>
     <t>[서울대] 광역최적화와 단백질-리간드 도킹 제목: 광역최적화와 단백질-리간드 도킹&amp;#xd;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[서울대] 단백질 구조 정밀화에 대한 이해 제목: 단백질 구조 정밀화에 대한 이해&amp;#xd;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[서울대] 단백질 곁가지 구조 예측에 대한 이해 제목: 단백질 곁가지 구조 예측에 대한 이해&amp;#xd;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5185,14 +5193,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
@@ -5205,6 +5210,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1">
@@ -5503,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="F284" sqref="F284"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5527,201 +5538,201 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C2" s="3" t="str">
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C2" s="2" t="str">
         <f>A2&amp;D2&amp;B2&amp;E2</f>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5504</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2001004</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>5504</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C3" s="7" t="str">
+    <row r="3" spans="1:9" s="9" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C66" si="0">A3&amp;D3&amp;B3&amp;E3</f>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5505</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>2001004</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>5505</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C4" s="3" t="str">
+    <row r="4" spans="1:9" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5506</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2001004</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>5506</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>1410</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1">
-      <c r="A5" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C5" s="3" t="str">
+    <row r="5" spans="1:9" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5507</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2001004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>5507</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>1411</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1">
-      <c r="A6" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C6" s="3" t="str">
+    <row r="6" spans="1:9" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5508</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2001004</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5508</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C7" s="1" t="str">
+    <row r="7" spans="1:9" s="7" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5509</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>2001004</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>5509</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>1413</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C8" s="1" t="str">
+    <row r="8" spans="1:9" s="7" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5510</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>2001004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>5510</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1">
-      <c r="A9" s="5" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C9" s="5" t="str">
+    <row r="9" spans="1:9" s="5" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5511</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2001004</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>5511</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>1679</v>
       </c>
     </row>
@@ -5749,30 +5760,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1">
-      <c r="A11" s="7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C11" s="7" t="str">
+    <row r="11" spans="1:9" s="9" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5513</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>2001004</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>5513</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -13558,33 +13569,33 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="9" customFormat="1">
-      <c r="A277" s="9" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C277" s="9" t="str">
+    <row r="277" spans="1:9" s="10" customFormat="1">
+      <c r="A277" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C277" s="10" t="str">
         <f t="shared" si="4"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9534</v>
       </c>
-      <c r="D277" s="9">
-        <v>2001003</v>
-      </c>
-      <c r="E277" s="9">
+      <c r="D277" s="10">
+        <v>2001003</v>
+      </c>
+      <c r="E277" s="10">
         <v>9534</v>
       </c>
-      <c r="F277" s="9" t="s">
+      <c r="F277" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="G277" s="9" t="s">
+      <c r="G277" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H277" s="9" t="s">
+      <c r="H277" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="I277" s="9" t="s">
+      <c r="I277" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13839,7 +13850,7 @@
       <c r="E286">
         <v>9543</v>
       </c>
-      <c r="F286" s="10" t="s">
+      <c r="F286" s="11" t="s">
         <v>373</v>
       </c>
       <c r="G286" t="s">
@@ -13966,93 +13977,93 @@
         <v>32</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="9" customFormat="1">
-      <c r="A291" s="9" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C291" s="9" t="str">
+    <row r="291" spans="1:9" s="10" customFormat="1">
+      <c r="A291" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C291" s="10" t="str">
         <f t="shared" si="4"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9548</v>
       </c>
-      <c r="D291" s="9">
-        <v>2001003</v>
-      </c>
-      <c r="E291" s="9">
+      <c r="D291" s="10">
+        <v>2001003</v>
+      </c>
+      <c r="E291" s="10">
         <v>9548</v>
       </c>
-      <c r="F291" s="9" t="s">
+      <c r="F291" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="G291" s="9" t="s">
+      <c r="G291" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="H291" s="9" t="s">
+      <c r="H291" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="I291" s="9" t="s">
+      <c r="I291" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="2" customFormat="1">
-      <c r="A292" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C292" s="2" t="str">
+    <row r="292" spans="1:9" s="10" customFormat="1">
+      <c r="A292" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C292" s="10" t="str">
         <f t="shared" si="4"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9549</v>
       </c>
-      <c r="D292" s="2">
-        <v>2001003</v>
-      </c>
-      <c r="E292" s="2">
+      <c r="D292" s="10">
+        <v>2001003</v>
+      </c>
+      <c r="E292" s="10">
         <v>9549</v>
       </c>
-      <c r="F292" s="2" t="s">
+      <c r="F292" s="10" t="s">
         <v>1454</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="G292" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H292" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I292" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H292" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" s="2" customFormat="1">
-      <c r="A293" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C293" s="2" t="str">
+    </row>
+    <row r="293" spans="1:9" s="10" customFormat="1">
+      <c r="A293" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C293" s="10" t="str">
         <f t="shared" si="4"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9550</v>
       </c>
-      <c r="D293" s="2">
-        <v>2001003</v>
-      </c>
-      <c r="E293" s="2">
+      <c r="D293" s="10">
+        <v>2001003</v>
+      </c>
+      <c r="E293" s="10">
         <v>9550</v>
       </c>
-      <c r="F293" s="2" t="s">
+      <c r="F293" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="G293" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H293" s="2" t="s">
+      <c r="G293" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H293" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="I293" s="2" t="s">
+      <c r="I293" s="10" t="s">
         <v>35</v>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/K1714N1/work/doc/edison_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E733B-1E15-DB41-A963-988C04BDD102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2744A686-591B-024B-A4AA-737847CD3F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="1685">
   <si>
     <t>전자들이 전자총내의 포텐셜에 의해 가속되어, 전자빔내의 전자들의 속도가 결정된다. 헬름홀츠 코일은 전자빔에 수직하게 균일하고 측정가능한 자기장을 생성한다. 이 자기장은 전자빔의 경로를 원형으로 휘게 만든다. 가속 포텐셜(V), 헬름홀츠 코일에 흐르는 전류(I), 그리고 전자빔의 반경을 측정함으로써 e/m이 쉽게 계산된다. &amp;#xd;</t>
   </si>
@@ -5087,6 +5087,10 @@
   </si>
   <si>
     <t>[서울대] 단백질 곁가지 구조 예측에 대한 이해 제목: 단백질 곁가지 구조 예측에 대한 이해&amp;#xd;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e/m측정하기 3 공식 에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5136,7 +5140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5172,6 +5176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5193,7 +5203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5228,6 +5238,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5515,7 +5531,7 @@
   <dimension ref="A1:I865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5736,28 +5752,31 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C10" s="1" t="str">
+    <row r="10" spans="1:9" s="9" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001004&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=5512</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>2001004</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>5512</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="9" t="s">
         <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>1684</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1">
@@ -6897,93 +6916,93 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C54" s="1" t="str">
+    <row r="54" spans="1:9" s="7" customFormat="1">
+      <c r="A54" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9114</v>
       </c>
-      <c r="D54">
-        <v>2001003</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E54" s="7">
         <v>9114</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C55" s="1" t="str">
+    <row r="55" spans="1:9" s="7" customFormat="1">
+      <c r="A55" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9115</v>
       </c>
-      <c r="D55">
-        <v>2001003</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E55" s="7">
         <v>9115</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="7" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C56" s="1" t="str">
+    <row r="56" spans="1:9" s="7" customFormat="1">
+      <c r="A56" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9116</v>
       </c>
-      <c r="D56">
-        <v>2001003</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E56" s="7">
         <v>9116</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="7" t="s">
         <v>869</v>
       </c>
     </row>
@@ -7287,123 +7306,123 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C67" s="1" t="str">
+    <row r="67" spans="1:9" s="13" customFormat="1">
+      <c r="A67" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C67" s="12" t="str">
         <f t="shared" ref="C67:C130" si="1">A67&amp;D67&amp;B67&amp;E67</f>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9127</v>
       </c>
-      <c r="D67">
-        <v>2001003</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="13">
+        <v>2001003</v>
+      </c>
+      <c r="E67" s="13">
         <v>9127</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="13" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C68" s="1" t="str">
+    <row r="68" spans="1:9" s="13" customFormat="1">
+      <c r="A68" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C68" s="12" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9128</v>
       </c>
-      <c r="D68">
-        <v>2001003</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="13">
+        <v>2001003</v>
+      </c>
+      <c r="E68" s="13">
         <v>9128</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="13" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C69" s="1" t="str">
+    <row r="69" spans="1:9" s="13" customFormat="1">
+      <c r="A69" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C69" s="12" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9129</v>
       </c>
-      <c r="D69">
-        <v>2001003</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="13">
+        <v>2001003</v>
+      </c>
+      <c r="E69" s="13">
         <v>9129</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="13" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C70" s="1" t="str">
+    <row r="70" spans="1:9" s="13" customFormat="1">
+      <c r="A70" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C70" s="12" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9130</v>
       </c>
-      <c r="D70">
-        <v>2001003</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="13">
+        <v>2001003</v>
+      </c>
+      <c r="E70" s="13">
         <v>9130</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="13" t="s">
         <v>877</v>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/K1714N1/work/doc/edison_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2744A686-591B-024B-A4AA-737847CD3F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84837B2-8AAA-A042-9C52-05DE0B159AA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5530,8 +5530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I865"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7306,63 +7306,63 @@
         <v>873</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="13" customFormat="1">
-      <c r="A67" s="12" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C67" s="12" t="str">
+    <row r="67" spans="1:9" s="7" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C67" s="6" t="str">
         <f t="shared" ref="C67:C130" si="1">A67&amp;D67&amp;B67&amp;E67</f>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9127</v>
       </c>
-      <c r="D67" s="13">
-        <v>2001003</v>
-      </c>
-      <c r="E67" s="13">
+      <c r="D67" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E67" s="7">
         <v>9127</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I67" s="13" t="s">
+      <c r="I67" s="7" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="13" customFormat="1">
-      <c r="A68" s="12" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C68" s="12" t="str">
+    <row r="68" spans="1:9" s="7" customFormat="1">
+      <c r="A68" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9128</v>
       </c>
-      <c r="D68" s="13">
-        <v>2001003</v>
-      </c>
-      <c r="E68" s="13">
+      <c r="D68" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E68" s="7">
         <v>9128</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G68" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="7" t="s">
         <v>875</v>
       </c>
     </row>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/K1714N1/work/doc/edison_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84837B2-8AAA-A042-9C52-05DE0B159AA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22921C3D-3944-E84E-835C-25F179061C71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="1685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="1687">
   <si>
     <t>전자들이 전자총내의 포텐셜에 의해 가속되어, 전자빔내의 전자들의 속도가 결정된다. 헬름홀츠 코일은 전자빔에 수직하게 균일하고 측정가능한 자기장을 생성한다. 이 자기장은 전자빔의 경로를 원형으로 휘게 만든다. 가속 포텐셜(V), 헬름홀츠 코일에 흐르는 전류(I), 그리고 전자빔의 반경을 측정함으로써 e/m이 쉽게 계산된다. &amp;#xd;</t>
   </si>
@@ -5091,6 +5091,14 @@
   </si>
   <si>
     <t>e/m측정하기 3 공식 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNTFET 소자 시뮬레이션 Contents 및 SW Manual CNTFET 소자 시뮬레이션 Contents 및 SW Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 파일 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5098,7 +5106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5139,8 +5147,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5176,12 +5192,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5203,7 +5213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5240,10 +5250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5528,10 +5535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I865"/>
+  <dimension ref="A1:J865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7006,303 +7013,303 @@
         <v>869</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C57" s="1" t="str">
+    <row r="57" spans="1:9" s="7" customFormat="1">
+      <c r="A57" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9117</v>
       </c>
-      <c r="D57">
-        <v>2001003</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E57" s="7">
         <v>9117</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C58" s="1" t="str">
+    <row r="58" spans="1:9" s="7" customFormat="1">
+      <c r="A58" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9118</v>
       </c>
-      <c r="D58">
-        <v>2001003</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E58" s="7">
         <v>9118</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="7" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C59" s="1" t="str">
+    <row r="59" spans="1:9" s="7" customFormat="1">
+      <c r="A59" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9119</v>
       </c>
-      <c r="D59">
-        <v>2001003</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E59" s="7">
         <v>9119</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C60" s="1" t="str">
+    <row r="60" spans="1:9" s="7" customFormat="1">
+      <c r="A60" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9120</v>
       </c>
-      <c r="D60">
-        <v>2001003</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E60" s="7">
         <v>9120</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C61" s="1" t="str">
+    <row r="61" spans="1:9" s="7" customFormat="1">
+      <c r="A61" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9121</v>
       </c>
-      <c r="D61">
-        <v>2001003</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E61" s="7">
         <v>9121</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C62" s="1" t="str">
+    <row r="62" spans="1:9" s="7" customFormat="1">
+      <c r="A62" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9122</v>
       </c>
-      <c r="D62">
-        <v>2001003</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E62" s="7">
         <v>9122</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C63" s="1" t="str">
+    <row r="63" spans="1:9" s="7" customFormat="1">
+      <c r="A63" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9123</v>
       </c>
-      <c r="D63">
-        <v>2001003</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E63" s="7">
         <v>9123</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C64" s="1" t="str">
+    <row r="64" spans="1:9" s="7" customFormat="1">
+      <c r="A64" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9124</v>
       </c>
-      <c r="D64">
-        <v>2001003</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E64" s="7">
         <v>9124</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="7" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C65" s="1" t="str">
+    <row r="65" spans="1:9" s="7" customFormat="1">
+      <c r="A65" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9125</v>
       </c>
-      <c r="D65">
-        <v>2001003</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E65" s="7">
         <v>9125</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="7" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C66" s="1" t="str">
+    <row r="66" spans="1:9" s="7" customFormat="1">
+      <c r="A66" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9126</v>
       </c>
-      <c r="D66">
-        <v>2001003</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E66" s="7">
         <v>9126</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="7" t="s">
         <v>873</v>
       </c>
     </row>
@@ -7366,1527 +7373,1530 @@
         <v>875</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="13" customFormat="1">
-      <c r="A69" s="12" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C69" s="12" t="str">
+    <row r="69" spans="1:9" s="7" customFormat="1">
+      <c r="A69" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9129</v>
       </c>
-      <c r="D69" s="13">
-        <v>2001003</v>
-      </c>
-      <c r="E69" s="13">
+      <c r="D69" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E69" s="7">
         <v>9129</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G69" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="I69" s="13" t="s">
+      <c r="I69" s="7" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="13" customFormat="1">
-      <c r="A70" s="12" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C70" s="12" t="str">
+    <row r="70" spans="1:9" s="7" customFormat="1">
+      <c r="A70" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9130</v>
       </c>
-      <c r="D70" s="13">
-        <v>2001003</v>
-      </c>
-      <c r="E70" s="13">
+      <c r="D70" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E70" s="7">
         <v>9130</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="H70" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="7" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C71" s="1" t="str">
+    <row r="71" spans="1:9" s="7" customFormat="1">
+      <c r="A71" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9131</v>
       </c>
-      <c r="D71">
-        <v>2001003</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E71" s="7">
         <v>9131</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="7" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C72" s="1" t="str">
+    <row r="72" spans="1:9" s="7" customFormat="1">
+      <c r="A72" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C72" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9132</v>
       </c>
-      <c r="D72">
-        <v>2001003</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E72" s="7">
         <v>9132</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="7" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C73" s="1" t="str">
+    <row r="73" spans="1:9" s="7" customFormat="1">
+      <c r="A73" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C73" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9133</v>
       </c>
-      <c r="D73">
-        <v>2001003</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E73" s="7">
         <v>9133</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="7" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C74" s="1" t="str">
+    <row r="74" spans="1:9" s="7" customFormat="1">
+      <c r="A74" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C74" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9134</v>
       </c>
-      <c r="D74">
-        <v>2001003</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E74" s="7">
         <v>9134</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="7" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C75" s="1" t="str">
+    <row r="75" spans="1:9" s="7" customFormat="1">
+      <c r="A75" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C75" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9135</v>
       </c>
-      <c r="D75">
-        <v>2001003</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E75" s="7">
         <v>9135</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="7" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C76" s="1" t="str">
+    <row r="76" spans="1:9" s="7" customFormat="1">
+      <c r="A76" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C76" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9136</v>
       </c>
-      <c r="D76">
-        <v>2001003</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E76" s="7">
         <v>9136</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="7" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C77" s="1" t="str">
+    <row r="77" spans="1:9" s="7" customFormat="1">
+      <c r="A77" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C77" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9137</v>
       </c>
-      <c r="D77">
-        <v>2001003</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E77" s="7">
         <v>9137</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="7" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C78" s="1" t="str">
+    <row r="78" spans="1:9" s="7" customFormat="1">
+      <c r="A78" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C78" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9138</v>
       </c>
-      <c r="D78">
-        <v>2001003</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E78" s="7">
         <v>9138</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="7" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C79" s="1" t="str">
+    <row r="79" spans="1:9" s="7" customFormat="1">
+      <c r="A79" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C79" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9139</v>
       </c>
-      <c r="D79">
-        <v>2001003</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E79" s="7">
         <v>9139</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="7" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C80" s="1" t="str">
+    <row r="80" spans="1:9" s="7" customFormat="1">
+      <c r="A80" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C80" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9140</v>
       </c>
-      <c r="D80">
-        <v>2001003</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E80" s="7">
         <v>9140</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="7" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C81" s="1" t="str">
+    <row r="81" spans="1:9" s="7" customFormat="1">
+      <c r="A81" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C81" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9141</v>
       </c>
-      <c r="D81">
-        <v>2001003</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E81" s="7">
         <v>9141</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="7" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C82" s="1" t="str">
+    <row r="82" spans="1:9" s="7" customFormat="1">
+      <c r="A82" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C82" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9142</v>
       </c>
-      <c r="D82">
-        <v>2001003</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E82" s="7">
         <v>9142</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="7" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C83" s="1" t="str">
+    <row r="83" spans="1:9" s="7" customFormat="1">
+      <c r="A83" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C83" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9143</v>
       </c>
-      <c r="D83">
-        <v>2001003</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E83" s="7">
         <v>9143</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="7" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C84" s="1" t="str">
+    <row r="84" spans="1:9" s="7" customFormat="1">
+      <c r="A84" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C84" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9144</v>
       </c>
-      <c r="D84">
-        <v>2001003</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E84" s="7">
         <v>9144</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="7" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C85" s="1" t="str">
+    <row r="85" spans="1:9" s="7" customFormat="1">
+      <c r="A85" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C85" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9145</v>
       </c>
-      <c r="D85">
-        <v>2001003</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E85" s="7">
         <v>9145</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="7" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C86" s="1" t="str">
+    <row r="86" spans="1:9" s="7" customFormat="1">
+      <c r="A86" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C86" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9146</v>
       </c>
-      <c r="D86">
-        <v>2001003</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E86" s="7">
         <v>9146</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C87" s="1" t="str">
+    <row r="87" spans="1:9" s="7" customFormat="1">
+      <c r="A87" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C87" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9147</v>
       </c>
-      <c r="D87">
-        <v>2001003</v>
-      </c>
-      <c r="E87">
+      <c r="D87" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E87" s="7">
         <v>9147</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="7" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C88" s="1" t="str">
+    <row r="88" spans="1:9" s="7" customFormat="1">
+      <c r="A88" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C88" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9148</v>
       </c>
-      <c r="D88">
-        <v>2001003</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E88" s="7">
         <v>9148</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="7" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C89" s="1" t="str">
+    <row r="89" spans="1:9" s="7" customFormat="1">
+      <c r="A89" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C89" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9149</v>
       </c>
-      <c r="D89">
-        <v>2001003</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E89" s="7">
         <v>9149</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="7" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C90" s="1" t="str">
+    <row r="90" spans="1:9" s="7" customFormat="1">
+      <c r="A90" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C90" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9150</v>
       </c>
-      <c r="D90">
-        <v>2001003</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E90" s="7">
         <v>9150</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="7" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C91" s="1" t="str">
+    <row r="91" spans="1:9" s="7" customFormat="1">
+      <c r="A91" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C91" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9151</v>
       </c>
-      <c r="D91">
-        <v>2001003</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E91" s="7">
         <v>9151</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="7" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C92" s="1" t="str">
+    <row r="92" spans="1:9" s="7" customFormat="1">
+      <c r="A92" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C92" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9152</v>
       </c>
-      <c r="D92">
-        <v>2001003</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E92" s="7">
         <v>9152</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="7" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C93" s="1" t="str">
+    <row r="93" spans="1:9" s="7" customFormat="1">
+      <c r="A93" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C93" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9153</v>
       </c>
-      <c r="D93">
-        <v>2001003</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E93" s="7">
         <v>9153</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="7" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C94" s="1" t="str">
+    <row r="94" spans="1:9" s="7" customFormat="1">
+      <c r="A94" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C94" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9154</v>
       </c>
-      <c r="D94">
-        <v>2001003</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E94" s="7">
         <v>9154</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="H94" t="s">
-        <v>189</v>
-      </c>
-      <c r="I94" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C95" s="1" t="str">
+    </row>
+    <row r="95" spans="1:9" s="7" customFormat="1">
+      <c r="A95" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C95" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9155</v>
       </c>
-      <c r="D95">
-        <v>2001003</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E95" s="7">
         <v>9155</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="7" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C96" s="1" t="str">
+    <row r="96" spans="1:9" s="7" customFormat="1">
+      <c r="A96" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C96" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9156</v>
       </c>
-      <c r="D96">
-        <v>2001003</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E96" s="7">
         <v>9156</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="7" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C97" s="1" t="str">
+    <row r="97" spans="1:10" s="7" customFormat="1">
+      <c r="A97" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C97" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9157</v>
       </c>
-      <c r="D97">
-        <v>2001003</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E97" s="7">
         <v>9157</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="7" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C98" s="1" t="str">
+    <row r="98" spans="1:10" s="7" customFormat="1">
+      <c r="A98" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C98" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9158</v>
       </c>
-      <c r="D98">
-        <v>2001003</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E98" s="7">
         <v>9158</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C99" s="1" t="str">
+    <row r="99" spans="1:10" s="7" customFormat="1">
+      <c r="A99" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C99" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9159</v>
       </c>
-      <c r="D99">
-        <v>2001003</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E99" s="7">
         <v>9159</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C100" s="1" t="str">
+    <row r="100" spans="1:10" s="5" customFormat="1">
+      <c r="A100" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C100" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9160</v>
       </c>
-      <c r="D100">
-        <v>2001003</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="5">
+        <v>2001003</v>
+      </c>
+      <c r="E100" s="5">
         <v>9160</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="5" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C101" s="1" t="str">
+      <c r="J100" s="12" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="7" customFormat="1">
+      <c r="A101" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C101" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9161</v>
       </c>
-      <c r="D101">
-        <v>2001003</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E101" s="7">
         <v>9161</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="7" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C102" s="1" t="str">
+    <row r="102" spans="1:10" s="7" customFormat="1">
+      <c r="A102" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C102" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9162</v>
       </c>
-      <c r="D102">
-        <v>2001003</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E102" s="7">
         <v>9162</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C103" s="1" t="str">
+    <row r="103" spans="1:10" s="7" customFormat="1">
+      <c r="A103" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C103" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9163</v>
       </c>
-      <c r="D103">
-        <v>2001003</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E103" s="7">
         <v>9163</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="7" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C104" s="1" t="str">
+    <row r="104" spans="1:10" s="7" customFormat="1">
+      <c r="A104" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C104" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9164</v>
       </c>
-      <c r="D104">
-        <v>2001003</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E104" s="7">
         <v>9164</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="7" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C105" s="1" t="str">
+    <row r="105" spans="1:10" s="7" customFormat="1">
+      <c r="A105" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C105" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9165</v>
       </c>
-      <c r="D105">
-        <v>2001003</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E105" s="7">
         <v>9165</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="7" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C106" s="1" t="str">
+    <row r="106" spans="1:10" s="7" customFormat="1">
+      <c r="A106" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C106" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9166</v>
       </c>
-      <c r="D106">
-        <v>2001003</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E106" s="7">
         <v>9166</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="7" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C107" s="1" t="str">
+    <row r="107" spans="1:10" s="7" customFormat="1">
+      <c r="A107" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C107" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9167</v>
       </c>
-      <c r="D107">
-        <v>2001003</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E107" s="7">
         <v>9167</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="7" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C108" s="1" t="str">
+    <row r="108" spans="1:10" s="7" customFormat="1">
+      <c r="A108" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C108" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9168</v>
       </c>
-      <c r="D108">
-        <v>2001003</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E108" s="7">
         <v>9168</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="7" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C109" s="1" t="str">
+    <row r="109" spans="1:10" s="7" customFormat="1">
+      <c r="A109" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C109" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9169</v>
       </c>
-      <c r="D109">
-        <v>2001003</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E109" s="7">
         <v>9169</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="7" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C110" s="1" t="str">
+    <row r="110" spans="1:10" s="7" customFormat="1">
+      <c r="A110" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C110" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9170</v>
       </c>
-      <c r="D110">
-        <v>2001003</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E110" s="7">
         <v>9170</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="7" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C111" s="1" t="str">
+    <row r="111" spans="1:10" s="7" customFormat="1">
+      <c r="A111" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C111" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9171</v>
       </c>
-      <c r="D111">
-        <v>2001003</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E111" s="7">
         <v>9171</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="7" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C112" s="1" t="str">
+    <row r="112" spans="1:10" s="7" customFormat="1">
+      <c r="A112" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C112" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9172</v>
       </c>
-      <c r="D112">
-        <v>2001003</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E112" s="7">
         <v>9172</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="7" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C113" s="1" t="str">
+    <row r="113" spans="1:9" s="7" customFormat="1">
+      <c r="A113" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C113" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9173</v>
       </c>
-      <c r="D113">
-        <v>2001003</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E113" s="7">
         <v>9173</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="7" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C114" s="1" t="str">
+    <row r="114" spans="1:9" s="7" customFormat="1">
+      <c r="A114" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C114" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9174</v>
       </c>
-      <c r="D114">
-        <v>2001003</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E114" s="7">
         <v>9174</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="7" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C115" s="1" t="str">
+    <row r="115" spans="1:9" s="7" customFormat="1">
+      <c r="A115" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C115" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9175</v>
       </c>
-      <c r="D115">
-        <v>2001003</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E115" s="7">
         <v>9175</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C116" s="1" t="str">
+    <row r="116" spans="1:9" s="7" customFormat="1">
+      <c r="A116" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C116" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9176</v>
       </c>
-      <c r="D116">
-        <v>2001003</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E116" s="7">
         <v>9176</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="7" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C117" s="1" t="str">
+    <row r="117" spans="1:9" s="7" customFormat="1">
+      <c r="A117" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C117" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9177</v>
       </c>
-      <c r="D117">
-        <v>2001003</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E117" s="7">
         <v>9177</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="7" t="s">
         <v>1599</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C118" s="1" t="str">
+    <row r="118" spans="1:9" s="7" customFormat="1">
+      <c r="A118" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C118" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9178</v>
       </c>
-      <c r="D118">
-        <v>2001003</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E118" s="7">
         <v>9178</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="7" t="s">
         <v>1443</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="7" t="s">
         <v>1600</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C119" s="1" t="str">
+    <row r="119" spans="1:9" s="7" customFormat="1">
+      <c r="A119" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C119" s="6" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9179</v>
       </c>
-      <c r="D119">
-        <v>2001003</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="7">
+        <v>2001003</v>
+      </c>
+      <c r="E119" s="7">
         <v>9179</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="7" t="s">
         <v>920</v>
       </c>
     </row>
@@ -29711,7 +29721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C825"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A273" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/contents.xlsx
+++ b/contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/K1714N1/work/doc/edison_blog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22921C3D-3944-E84E-835C-25F179061C71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0801DD-F299-0F4D-9E22-6698AFE931C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5543" uniqueCount="1688">
   <si>
     <t>전자들이 전자총내의 포텐셜에 의해 가속되어, 전자빔내의 전자들의 속도가 결정된다. 헬름홀츠 코일은 전자빔에 수직하게 균일하고 측정가능한 자기장을 생성한다. 이 자기장은 전자빔의 경로를 원형으로 휘게 만든다. 가속 포텐셜(V), 헬름홀츠 코일에 흐르는 전류(I), 그리고 전자빔의 반경을 측정함으로써 e/m이 쉽게 계산된다. &amp;#xd;</t>
   </si>
@@ -5099,6 +5099,10 @@
   </si>
   <si>
     <t>컨텐츠 파일 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날 컨텐츠 매뉴얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5537,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -8576,34 +8580,37 @@
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="7" customFormat="1">
-      <c r="A109" s="6" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C109" s="6" t="str">
+    <row r="109" spans="1:10" s="9" customFormat="1">
+      <c r="A109" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C109" s="8" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9169</v>
       </c>
-      <c r="D109" s="7">
-        <v>2001003</v>
-      </c>
-      <c r="E109" s="7">
+      <c r="D109" s="9">
+        <v>2001003</v>
+      </c>
+      <c r="E109" s="9">
         <v>9169</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" s="9" t="s">
         <v>913</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="7" customFormat="1">
@@ -8696,7 +8703,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="7" customFormat="1">
+    <row r="113" spans="1:10" s="7" customFormat="1">
       <c r="A113" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8726,37 +8733,40 @@
         <v>917</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="7" customFormat="1">
-      <c r="A114" s="6" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C114" s="6" t="str">
+    <row r="114" spans="1:10" s="9" customFormat="1">
+      <c r="A114" s="8" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C114" s="8" t="str">
         <f t="shared" si="1"/>
         <v>https://www.edison.re.kr/edison-content?p_p_id=edisoncontent_WAR_edisoncontent2016portlet&amp;p_p_lifecycle=0&amp;p_p_state=maximized&amp;p_p_mode=view&amp;p_p_col_id=column-1&amp;p_p_col_count=1&amp;_edisoncontent_WAR_edisoncontent2016portlet_myaction=generalModifyView&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentDiv=2001003&amp;_edisoncontent_WAR_edisoncontent2016portlet_contentSeq=9174</v>
       </c>
-      <c r="D114" s="7">
-        <v>2001003</v>
-      </c>
-      <c r="E114" s="7">
+      <c r="D114" s="9">
+        <v>2001003</v>
+      </c>
+      <c r="E114" s="9">
         <v>9174</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="H114" s="7" t="s">
+      <c r="H114" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="7" t="s">
+      <c r="I114" s="9" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="7" customFormat="1">
+      <c r="J114" s="9" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="7" customFormat="1">
       <c r="A115" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8786,7 +8796,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="7" customFormat="1">
+    <row r="116" spans="1:10" s="7" customFormat="1">
       <c r="A116" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="7" customFormat="1">
+    <row r="117" spans="1:10" s="7" customFormat="1">
       <c r="A117" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8843,7 +8853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="7" customFormat="1">
+    <row r="118" spans="1:10" s="7" customFormat="1">
       <c r="A118" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8870,7 +8880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="7" customFormat="1">
+    <row r="119" spans="1:10" s="7" customFormat="1">
       <c r="A119" s="6" t="s">
         <v>1672</v>
       </c>
@@ -8900,7 +8910,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="s">
         <v>1672</v>
       </c>
@@ -8930,7 +8940,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
         <v>1672</v>
       </c>
@@ -8957,7 +8967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
         <v>1672</v>
       </c>
@@ -8987,7 +8997,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
         <v>1672</v>
       </c>
@@ -9014,7 +9024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>1672</v>
       </c>
@@ -9041,7 +9051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>1672</v>
       </c>
@@ -9068,7 +9078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>1672</v>
       </c>
@@ -9098,7 +9108,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>1672</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>1672</v>
       </c>
